--- a/scraper/top_remaining_spreadsheets_states/top_remaining_WA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_WA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>MASTERPIECE MOOLA</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>YEAR OF THE PIG</t>
@@ -56,27 +56,27 @@
     <t>TIS THE SEASON!</t>
   </si>
   <si>
+    <t>DOUBLE IT!</t>
+  </si>
+  <si>
     <t>CASH ON THE RUN</t>
   </si>
   <si>
     <t>2019-02-27</t>
   </si>
   <si>
-    <t>DOUBLE IT!</t>
-  </si>
-  <si>
     <t>STACKS OF GOLD</t>
   </si>
   <si>
     <t>CRAZY 7S</t>
   </si>
   <si>
+    <t>LUCKY 13</t>
+  </si>
+  <si>
     <t>MUMMY MAYHEM</t>
   </si>
   <si>
-    <t>LUCKY 13</t>
-  </si>
-  <si>
     <t>DOUBLE FRENZY</t>
   </si>
   <si>
@@ -155,21 +155,21 @@
     <t>GIFTS GALORE</t>
   </si>
   <si>
+    <t>BLACK AND GOLD</t>
+  </si>
+  <si>
+    <t>SEATTLE SEAHAWKS</t>
+  </si>
+  <si>
+    <t>LADY LUCK</t>
+  </si>
+  <si>
     <t>MUCKLESHOOT CASINO SLOTS</t>
   </si>
   <si>
     <t>2019-02-24</t>
   </si>
   <si>
-    <t>BLACK AND GOLD</t>
-  </si>
-  <si>
-    <t>SEATTLE SEAHAWKS</t>
-  </si>
-  <si>
-    <t>LADY LUCK</t>
-  </si>
-  <si>
     <t>DID I WIN?</t>
   </si>
   <si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>$40 MILLION MEGA MULTIPLIER</t>
-  </si>
-  <si>
-    <t>$25,000,000 EXTRAVAGANZA</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -593,7 +587,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,13 +726,13 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>1462</v>
+        <v>1529</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -749,16 +743,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1462</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1529</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -812,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -832,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -898,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -958,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1055,7 +1049,7 @@
         <v>1519</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1309,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1329,13 +1323,13 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>1495</v>
+        <v>1523</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1349,13 +1343,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1369,16 +1363,16 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1392,10 +1386,10 @@
         <v>48</v>
       </c>
       <c r="D40">
-        <v>1527</v>
+        <v>1471</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1409,13 +1403,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>1506</v>
+        <v>1515</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1429,16 +1423,16 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>1480</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
         <v>50</v>
-      </c>
-      <c r="D42">
-        <v>1471</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1458,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1558,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1715,7 +1709,7 @@
         <v>1507</v>
       </c>
       <c r="E56">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1846,19 +1840,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D63">
-        <v>1442</v>
+        <v>1508</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1866,38 +1860,18 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
         <v>77</v>
       </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
       <c r="D64">
-        <v>1508</v>
+        <v>1409</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65">
-        <v>1409</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_WA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_WA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>STATE</t>
   </si>
@@ -44,27 +44,21 @@
     <t>MASTERPIECE MOOLA</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>YEAR OF THE PIG</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>WHITE HOT 7S</t>
   </si>
   <si>
+    <t>GNOME ME THE MONEY</t>
+  </si>
+  <si>
     <t>TIS THE SEASON!</t>
   </si>
   <si>
     <t>DOUBLE IT!</t>
   </si>
   <si>
-    <t>CASH ON THE RUN</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
-  </si>
-  <si>
     <t>STACKS OF GOLD</t>
   </si>
   <si>
@@ -77,27 +71,18 @@
     <t>MUMMY MAYHEM</t>
   </si>
   <si>
-    <t>DOUBLE FRENZY</t>
-  </si>
-  <si>
     <t>APPLE BUCKS</t>
   </si>
   <si>
-    <t>CRAB CASH</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>BLACK DIAMOND BINGO</t>
+  </si>
+  <si>
     <t>LOTERIA</t>
   </si>
   <si>
-    <t>5X THE MONEY</t>
-  </si>
-  <si>
-    <t>BLACK DIAMOND BINGO</t>
-  </si>
-  <si>
     <t>ELECTRIC CROSSWORD</t>
   </si>
   <si>
@@ -128,106 +113,91 @@
     <t>BONUS MATCH CROSSWORD</t>
   </si>
   <si>
+    <t>MULTIPLIER CROSSWORD</t>
+  </si>
+  <si>
+    <t>EXTRA SPIN SLINGO</t>
+  </si>
+  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>BLACK AND GOLD</t>
+  </si>
+  <si>
+    <t>POWER SHOT</t>
+  </si>
+  <si>
+    <t>LADY LUCK</t>
+  </si>
+  <si>
+    <t>GIFTS GALORE</t>
+  </si>
+  <si>
+    <t>MS PAC MAN</t>
+  </si>
+  <si>
+    <t>TOP SECRET CROSSWORD</t>
+  </si>
+  <si>
+    <t>LUCKY FOR LIFE</t>
+  </si>
+  <si>
+    <t>TRIPLE WINNING 7S</t>
+  </si>
+  <si>
+    <t>SEATTLE SEAHAWKS</t>
+  </si>
+  <si>
+    <t>$50,000 DOUBLOONS</t>
+  </si>
+  <si>
+    <t>GREAT 8&amp;#39;S</t>
+  </si>
+  <si>
+    <t>DIA DE LOS MUERTOS</t>
+  </si>
+  <si>
+    <t>$75,000 FRENZY</t>
+  </si>
+  <si>
+    <t>WINNER WINNER CHICKEN DINNER</t>
+  </si>
+  <si>
+    <t>MEGA CROSSWORD</t>
+  </si>
+  <si>
     <t>LUCKY 7S</t>
   </si>
   <si>
-    <t>$75,000 FRENZY</t>
-  </si>
-  <si>
-    <t>$50,000 DOUBLOONS</t>
-  </si>
-  <si>
-    <t>LUCKY FOR LIFE</t>
-  </si>
-  <si>
-    <t>POWER SHOT</t>
-  </si>
-  <si>
-    <t>TOP SECRET CROSSWORD</t>
-  </si>
-  <si>
-    <t>MS PAC MAN</t>
-  </si>
-  <si>
-    <t>GIFTS GALORE</t>
-  </si>
-  <si>
-    <t>BLACK AND GOLD</t>
-  </si>
-  <si>
-    <t>SEATTLE SEAHAWKS</t>
-  </si>
-  <si>
-    <t>LADY LUCK</t>
-  </si>
-  <si>
-    <t>MUCKLESHOOT CASINO SLOTS</t>
-  </si>
-  <si>
-    <t>2019-02-24</t>
-  </si>
-  <si>
-    <t>DID I WIN?</t>
-  </si>
-  <si>
-    <t>GREAT 8&amp;#39;S</t>
-  </si>
-  <si>
-    <t>DIA DE LOS MUERTOS</t>
-  </si>
-  <si>
-    <t>WINNER WINNER CHICKEN DINNER</t>
-  </si>
-  <si>
-    <t>MEGA CROSSWORD</t>
-  </si>
-  <si>
-    <t>$75,000 JACKPOT DOUBLER</t>
-  </si>
-  <si>
-    <t>LIGHTNING 7S</t>
-  </si>
-  <si>
-    <t>2019-02-18</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
     <t>TOWERING 10S</t>
   </si>
   <si>
+    <t>CASH CLUB</t>
+  </si>
+  <si>
+    <t>HOLIDAY COUNTDOWN</t>
+  </si>
+  <si>
+    <t>MIGHTY JUMBO BUCKS</t>
+  </si>
+  <si>
+    <t>TRIPLE JACKPOT</t>
+  </si>
+  <si>
+    <t>$8 MILLION CASH BLOWOUT</t>
+  </si>
+  <si>
+    <t>$5 MILLION CASH BLOWOUT</t>
+  </si>
+  <si>
+    <t>THE GAME OF LIFE</t>
+  </si>
+  <si>
     <t>HIT THE JACKPOT</t>
-  </si>
-  <si>
-    <t>BIG MONEY</t>
-  </si>
-  <si>
-    <t>HOLIDAY COUNTDOWN</t>
-  </si>
-  <si>
-    <t>MIGHTY JUMBO BUCKS</t>
-  </si>
-  <si>
-    <t>CASH CLUB</t>
-  </si>
-  <si>
-    <t>$5 MILLION CASH BLOWOUT</t>
-  </si>
-  <si>
-    <t>TRIPLE JACKPOT</t>
-  </si>
-  <si>
-    <t>THE GAME OF LIFE</t>
-  </si>
-  <si>
-    <t>$3 MILLION CASH BLOWOUT</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -587,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1514</v>
+        <v>1540</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -662,14 +632,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>2019</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1512</v>
+        <v>1531</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -683,13 +653,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -703,13 +673,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1510</v>
+        <v>1529</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -723,13 +693,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>1529</v>
+        <v>1541</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -743,16 +713,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>1462</v>
+        <v>1530</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -766,10 +736,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1541</v>
+        <v>1494</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -786,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1530</v>
+        <v>1502</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -806,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -820,16 +790,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>1502</v>
+        <v>1440</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -840,16 +810,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>1498</v>
+        <v>1528</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -860,16 +830,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>1501</v>
+        <v>1522</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -880,19 +850,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -900,13 +870,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>1493</v>
+        <v>1519</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -920,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>1518</v>
+        <v>1476</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -940,19 +910,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>1439</v>
+        <v>1503</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -960,13 +930,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>1440</v>
+        <v>1489</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -980,16 +950,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>1522</v>
+        <v>1496</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1000,16 +970,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>1528</v>
+        <v>1499</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1020,16 +990,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>1477</v>
+        <v>1492</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1040,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>1519</v>
+        <v>1549</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1060,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>1476</v>
+        <v>1542</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1080,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>1503</v>
+        <v>1527</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1100,16 +1070,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>1489</v>
+        <v>1537</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1120,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>1496</v>
+        <v>1471</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1140,13 +1110,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>1499</v>
+        <v>1523</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1160,16 +1130,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1180,16 +1150,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>1457</v>
+        <v>1524</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1200,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>1520</v>
+        <v>1488</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1220,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>1484</v>
+        <v>1515</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1240,16 +1210,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>1488</v>
+        <v>1526</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1260,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>1537</v>
+        <v>1506</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1280,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>1524</v>
+        <v>1484</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1300,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>1495</v>
+        <v>1516</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1320,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1340,16 +1310,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1360,16 +1330,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1380,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1400,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>1515</v>
+        <v>1457</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1420,19 +1390,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>1480</v>
+        <v>1504</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1440,19 +1410,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>1473</v>
+        <v>1521</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1460,16 +1430,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1480,16 +1450,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>1509</v>
+        <v>1485</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1500,16 +1470,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>1500</v>
+        <v>1525</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1520,16 +1490,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1474</v>
+        <v>1533</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>40646</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1540,19 +1510,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48">
-        <v>1490</v>
+        <v>1507</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1560,19 +1530,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D49">
-        <v>1491</v>
+        <v>1513</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1580,16 +1550,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50">
-        <v>1504</v>
+        <v>1469</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1600,16 +1570,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>1469</v>
+        <v>1486</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1620,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>1472</v>
+        <v>1487</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1640,16 +1610,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>1511</v>
+        <v>1433</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1660,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>1485</v>
+        <v>1508</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1680,198 +1650,18 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>1521</v>
+        <v>1409</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56">
-        <v>1507</v>
-      </c>
-      <c r="E56">
-        <v>605</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57">
-        <v>1525</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58">
-        <v>1513</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59">
-        <v>1465</v>
-      </c>
-      <c r="E59">
-        <v>375</v>
-      </c>
-      <c r="F59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60">
-        <v>1486</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61">
-        <v>1487</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62">
-        <v>1433</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63">
-        <v>1508</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64">
-        <v>1409</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
         <v>9</v>
       </c>
     </row>
